--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1679.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1679.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.586788412255253</v>
+        <v>1.07410728931427</v>
       </c>
       <c r="B1">
-        <v>2.882538033176048</v>
+        <v>4.477452754974365</v>
       </c>
       <c r="C1">
-        <v>2.132208586650789</v>
+        <v>2.459789276123047</v>
       </c>
       <c r="D1">
-        <v>1.98474463174821</v>
+        <v>1.699832916259766</v>
       </c>
       <c r="E1">
-        <v>1.821219984501423</v>
+        <v>1.378459334373474</v>
       </c>
     </row>
   </sheetData>
